--- a/static/csv/file.xlsx
+++ b/static/csv/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="142">
   <si>
     <t>date</t>
   </si>
@@ -49,7 +49,7 @@
     <t>neighbours</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:12:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:21:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>R</t>
@@ -79,7 +79,7 @@
     <t>36-11-8-23</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:30:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:01:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>two</t>
@@ -100,7 +100,7 @@
     <t>26-0-15-19</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:18:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:03:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>odd</t>
@@ -121,7 +121,7 @@
     <t>19-4-2-25</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:21:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 16:39:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>B</t>
@@ -136,7 +136,7 @@
     <t>35-3-0-32</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:24:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:07:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>p-r</t>
@@ -145,7 +145,7 @@
     <t>34-6-13-36</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:27:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:04:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>FH</t>
@@ -166,7 +166,7 @@
     <t>6-27-36-11</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:33:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:02:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>H</t>
@@ -178,7 +178,7 @@
     <t>31-9-18-29</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 02:30:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:50:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>first</t>
@@ -202,7 +202,7 @@
     <t>23-10-24-16</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:48:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:59:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>k-m</t>
@@ -211,7 +211,7 @@
     <t>32-15-4-21</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:51:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:51:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>F</t>
@@ -223,7 +223,7 @@
     <t>9-22-29-7</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 01:54:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:11:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>o-q</t>
@@ -247,7 +247,7 @@
     <t>25-17-6-27</t>
   </si>
   <si>
-    <t>Fri Mar 01 2019 02:00:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:45:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>s-u</t>
@@ -256,7 +256,7 @@
     <t>20-14-9-22</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:33:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 16:03:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>q-s</t>
@@ -265,7 +265,7 @@
     <t>29-7-12-35</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:36:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 16:06:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>q-r-s-t</t>
@@ -274,7 +274,7 @@
     <t>22-18-7-28</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:30:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:54:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>C</t>
@@ -289,7 +289,7 @@
     <t>14-31-22-18</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:42:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 18:12:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>c-d-e-f</t>
@@ -298,7 +298,7 @@
     <t>11-30-23-10</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:45:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:24:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>i-j-k-l</t>
@@ -319,13 +319,124 @@
     <t>16-33-20-14</t>
   </si>
   <si>
-    <t>Sat Mar 02 2019 15:54:00 GMT+0530 (India Standard Time)</t>
+    <t>Sat Mar 02 2019 17:00:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
     <t>12-35-26-0</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 17:56:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>k-l-m-n</t>
+  </si>
+  <si>
+    <t>33-1-14-31</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 17:57:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>m-n-o-p</t>
+  </si>
+  <si>
+    <t>30-8-10-5</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 16:33:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>c-e</t>
+  </si>
+  <si>
+    <t>18-29-28-19</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 18:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>u-v</t>
+  </si>
+  <si>
+    <t>28-12-3-26</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 16:51:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zero game</t>
+  </si>
+  <si>
+    <t>3-26-32-15</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 18:06:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>f-h</t>
+  </si>
+  <si>
+    <t>7-28-35-3</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 17:53:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>I-k</t>
+  </si>
+  <si>
+    <t>5-24-33-1</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 17:30:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>h-j</t>
+  </si>
+  <si>
+    <t>0-32-19-4</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 17:39:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>g-h-i-j</t>
+  </si>
+  <si>
+    <t>1-20-31-9</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 18:08:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>n-p</t>
+  </si>
+  <si>
+    <t>10-5-16-33</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 18:05:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>e-g</t>
+  </si>
+  <si>
+    <t>8-23-5-24</t>
+  </si>
+  <si>
+    <t>Sat Mar 02 2019 18:09:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>17-34-27-13</t>
   </si>
 </sst>
 </file>
@@ -702,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L88"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,6 +1918,2248 @@
         <v>104</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>NaN</v>
+      </c>
+      <c r="L36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>NaN</v>
+      </c>
+      <c r="L37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>NaN</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>32</v>
+      </c>
+      <c r="I47">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" t="s">
+        <v>122</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" t="s">
+        <v>96</v>
+      </c>
+      <c r="K54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59">
+        <v>NaN</v>
+      </c>
+      <c r="L59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64">
+        <v>NaN</v>
+      </c>
+      <c r="L64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" t="s">
+        <v>68</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>122</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>134</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+      <c r="K72" t="s">
+        <v>76</v>
+      </c>
+      <c r="L72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>53</v>
+      </c>
+      <c r="K78" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" t="s">
+        <v>137</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>134</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>140</v>
+      </c>
+      <c r="K85" t="s">
+        <v>76</v>
+      </c>
+      <c r="L85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" t="s">
+        <v>89</v>
+      </c>
+      <c r="J86" t="s">
+        <v>93</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>71</v>
+      </c>
+      <c r="K87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s">
+        <v>88</v>
+      </c>
+      <c r="I88" t="s">
+        <v>89</v>
+      </c>
+      <c r="J88" t="s">
+        <v>93</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
